--- a/data/trans_orig/p64d1_r-Edad-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD7C49C-F6B2-4970-BFC7-F95B0E5A7567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CC9F4E-E599-466A-B744-F2D622A15705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD396E4E-FD24-4A9F-B82B-12E2A834DBA5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D83403D4-94A6-45CE-B709-8CB51E3C3189}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>35,27%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>64,73%</t>
   </si>
   <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>21,59%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>78,41%</t>
   </si>
   <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>60,8%</t>
   </si>
   <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>22,51%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
   </si>
   <si>
     <t>71,85%</t>
   </si>
   <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>20,61%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>35,61%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>64,39%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>27,47%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>46,27%</t>
   </si>
   <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
   </si>
   <si>
     <t>72,53%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>53,73%</t>
   </si>
   <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
   </si>
   <si>
     <t>64,74%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,109 @@
     <t>54,62%</t>
   </si>
   <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>60,93%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>57,71%</t>
   </si>
   <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
   </si>
   <si>
     <t>39,07%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>76,43%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>69,92%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9668DD93-11A9-448C-B18C-12266E40C0D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136913E2-40B2-4AD3-B36C-4119E5EE2CD7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1343,7 +1343,7 @@
         <v>316</v>
       </c>
       <c r="N10" s="7">
-        <v>241131</v>
+        <v>241130</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1445,7 +1445,7 @@
         <v>1018</v>
       </c>
       <c r="N12" s="7">
-        <v>856592</v>
+        <v>856591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/p64d1_r-Edad-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CC9F4E-E599-466A-B744-F2D622A15705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{389B9D86-9EA7-4A79-BB12-07E5BAD6334C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D83403D4-94A6-45CE-B709-8CB51E3C3189}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BBA6F4C-28D2-4934-BD0F-25383D3306FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136913E2-40B2-4AD3-B36C-4119E5EE2CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B69DE6-6063-4DAF-ABAA-3921F4659230}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p64d1_r-Edad-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{389B9D86-9EA7-4A79-BB12-07E5BAD6334C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2340720-F298-4AE4-A48B-79090209CABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BBA6F4C-28D2-4934-BD0F-25383D3306FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E204CBD-4BD6-4716-B78D-A0BD582D5780}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
-    <t>Población que se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
+    <t>Población según si se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>35,27%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>64,73%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>21,59%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>78,41%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>60,8%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>22,51%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
   </si>
   <si>
     <t>71,85%</t>
   </si>
   <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>20,61%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>35,61%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>64,39%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>27,47%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>46,27%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>72,53%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>53,73%</t>
   </si>
   <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>64,74%</t>
   </si>
   <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,109 @@
     <t>54,62%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>60,93%</t>
   </si>
   <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>57,71%</t>
   </si>
   <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>39,07%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>76,43%</t>
   </si>
   <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>69,92%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B69DE6-6063-4DAF-ABAA-3921F4659230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF07CBF0-78AD-4058-84AD-06D667068F86}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1343,7 +1343,7 @@
         <v>316</v>
       </c>
       <c r="N10" s="7">
-        <v>241130</v>
+        <v>241131</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1445,7 +1445,7 @@
         <v>1018</v>
       </c>
       <c r="N12" s="7">
-        <v>856591</v>
+        <v>856592</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/p64d1_r-Edad-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2340720-F298-4AE4-A48B-79090209CABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D6AD3E-B90D-4767-B741-784EB99E2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E204CBD-4BD6-4716-B78D-A0BD582D5780}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3214994B-5B8B-40BF-809A-AC51E4F4D47E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="151">
   <si>
     <t>Población según si se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -65,409 +65,427 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +900,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF07CBF0-78AD-4058-84AD-06D667068F86}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56213260-DDBD-4D65-9D69-704DA6F3C89E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1021,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>31368</v>
+        <v>29887</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1036,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>29849</v>
+        <v>26142</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1051,7 @@
         <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>61217</v>
+        <v>56029</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1072,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>57579</v>
+        <v>60730</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1087,7 @@
         <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>61802</v>
+        <v>55096</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1102,7 @@
         <v>64</v>
       </c>
       <c r="N5" s="7">
-        <v>119380</v>
+        <v>115826</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1123,7 @@
         <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>88947</v>
+        <v>90617</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1138,7 @@
         <v>56</v>
       </c>
       <c r="I6" s="7">
-        <v>91651</v>
+        <v>81238</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1153,7 @@
         <v>103</v>
       </c>
       <c r="N6" s="7">
-        <v>180597</v>
+        <v>171855</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1176,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>76531</v>
+        <v>73969</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1191,7 @@
         <v>116</v>
       </c>
       <c r="I7" s="7">
-        <v>126178</v>
+        <v>169975</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1206,7 @@
         <v>176</v>
       </c>
       <c r="N7" s="7">
-        <v>202710</v>
+        <v>243945</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1209,7 +1227,7 @@
         <v>190</v>
       </c>
       <c r="D8" s="7">
-        <v>277941</v>
+        <v>276374</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1224,7 +1242,7 @@
         <v>180</v>
       </c>
       <c r="I8" s="7">
-        <v>195679</v>
+        <v>179745</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1239,7 +1257,7 @@
         <v>370</v>
       </c>
       <c r="N8" s="7">
-        <v>473619</v>
+        <v>456118</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1260,7 +1278,7 @@
         <v>250</v>
       </c>
       <c r="D9" s="7">
-        <v>354472</v>
+        <v>350343</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1293,7 @@
         <v>296</v>
       </c>
       <c r="I9" s="7">
-        <v>321857</v>
+        <v>349720</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1308,7 @@
         <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>676329</v>
+        <v>700063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1331,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="7">
-        <v>108005</v>
+        <v>100673</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1328,7 +1346,7 @@
         <v>203</v>
       </c>
       <c r="I10" s="7">
-        <v>133126</v>
+        <v>122608</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1343,7 +1361,7 @@
         <v>316</v>
       </c>
       <c r="N10" s="7">
-        <v>241131</v>
+        <v>223282</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1364,7 +1382,7 @@
         <v>359</v>
       </c>
       <c r="D11" s="7">
-        <v>371760</v>
+        <v>361293</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1379,7 +1397,7 @@
         <v>343</v>
       </c>
       <c r="I11" s="7">
-        <v>243700</v>
+        <v>228598</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1394,7 +1412,7 @@
         <v>702</v>
       </c>
       <c r="N11" s="7">
-        <v>615461</v>
+        <v>589890</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1415,7 +1433,7 @@
         <v>472</v>
       </c>
       <c r="D12" s="7">
-        <v>479765</v>
+        <v>461966</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1448,7 @@
         <v>546</v>
       </c>
       <c r="I12" s="7">
-        <v>376826</v>
+        <v>351206</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1463,7 @@
         <v>1018</v>
       </c>
       <c r="N12" s="7">
-        <v>856592</v>
+        <v>813172</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1486,7 @@
         <v>122</v>
       </c>
       <c r="D13" s="7">
-        <v>118444</v>
+        <v>110931</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1483,7 +1501,7 @@
         <v>255</v>
       </c>
       <c r="I13" s="7">
-        <v>165821</v>
+        <v>150686</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1498,7 +1516,7 @@
         <v>377</v>
       </c>
       <c r="N13" s="7">
-        <v>284265</v>
+        <v>261617</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1519,7 +1537,7 @@
         <v>398</v>
       </c>
       <c r="D14" s="7">
-        <v>456239</v>
+        <v>634151</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1534,7 +1552,7 @@
         <v>455</v>
       </c>
       <c r="I14" s="7">
-        <v>299841</v>
+        <v>302198</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1549,7 +1567,7 @@
         <v>853</v>
       </c>
       <c r="N14" s="7">
-        <v>756080</v>
+        <v>936349</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1570,7 +1588,7 @@
         <v>520</v>
       </c>
       <c r="D15" s="7">
-        <v>574683</v>
+        <v>745082</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1603,7 @@
         <v>710</v>
       </c>
       <c r="I15" s="7">
-        <v>465662</v>
+        <v>452884</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1618,7 @@
         <v>1230</v>
       </c>
       <c r="N15" s="7">
-        <v>1040345</v>
+        <v>1197966</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1623,7 +1641,7 @@
         <v>99</v>
       </c>
       <c r="D16" s="7">
-        <v>87816</v>
+        <v>82255</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1638,7 +1656,7 @@
         <v>182</v>
       </c>
       <c r="I16" s="7">
-        <v>104681</v>
+        <v>96039</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1653,7 +1671,7 @@
         <v>281</v>
       </c>
       <c r="N16" s="7">
-        <v>192497</v>
+        <v>178293</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1674,7 +1692,7 @@
         <v>256</v>
       </c>
       <c r="D17" s="7">
-        <v>231839</v>
+        <v>216883</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1689,7 +1707,7 @@
         <v>206</v>
       </c>
       <c r="I17" s="7">
-        <v>121546</v>
+        <v>112097</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1704,7 +1722,7 @@
         <v>462</v>
       </c>
       <c r="N17" s="7">
-        <v>353385</v>
+        <v>328981</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1725,7 +1743,7 @@
         <v>355</v>
       </c>
       <c r="D18" s="7">
-        <v>319655</v>
+        <v>299138</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1758,7 @@
         <v>388</v>
       </c>
       <c r="I18" s="7">
-        <v>226227</v>
+        <v>208136</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1773,7 @@
         <v>743</v>
       </c>
       <c r="N18" s="7">
-        <v>545882</v>
+        <v>507274</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1775,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>10800</v>
+        <v>9417</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1793,7 +1811,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>11595</v>
+        <v>10806</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1805,10 +1823,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="7">
-        <v>22395</v>
+        <v>20224</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1826,10 +1844,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>8973</v>
+        <v>7526</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1844,7 +1862,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="7">
-        <v>7435</v>
+        <v>6945</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1856,10 +1874,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" s="7">
-        <v>16408</v>
+        <v>14470</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1877,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>19773</v>
+        <v>16943</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1895,7 +1913,7 @@
         <v>37</v>
       </c>
       <c r="I21" s="7">
-        <v>19030</v>
+        <v>17751</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1925,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N21" s="7">
-        <v>38803</v>
+        <v>34694</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1942,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>429</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>432964</v>
+        <v>852</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>798</v>
-      </c>
-      <c r="I22" s="7">
-        <v>571250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1227</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1004214</v>
+        <v>852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +1997,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1244</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1404331</v>
+        <v>746</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
-        <v>1235</v>
-      </c>
-      <c r="I23" s="7">
-        <v>930003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
-        <v>2479</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>2334334</v>
+        <v>746</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2046,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>429</v>
+      </c>
+      <c r="D25" s="7">
+        <v>407985</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="7">
+        <v>798</v>
+      </c>
+      <c r="I25" s="7">
+        <v>576256</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1227</v>
+      </c>
+      <c r="N25" s="7">
+        <v>984242</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1244</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1557701</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1235</v>
+      </c>
+      <c r="I26" s="7">
+        <v>884679</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2479</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2442380</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1673</v>
       </c>
-      <c r="D24" s="7">
-        <v>1837295</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1965686</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2033</v>
       </c>
-      <c r="I24" s="7">
-        <v>1501253</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1460935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3706</v>
       </c>
-      <c r="N24" s="7">
-        <v>3338548</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>3426622</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
